--- a/HistaffWebApp/ReportTemplates/Attendance/Import/Import_SingDefault.xlsx
+++ b/HistaffWebApp/ReportTemplates/Attendance/Import/Import_SingDefault.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuyNV\Desktop\HiStaff_2017\05.DEPLOYMENT\02. Core Level2\01.SourceCode\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\TNG\TNG\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="ListShift">Shift!$A$2:$A$2</definedName>
     <definedName name="ValueShift">Shift!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>CODE</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>ID NV</t>
-  </si>
-  <si>
-    <t>Ca mặc định</t>
   </si>
   <si>
     <t>Mã ca mặc định</t>
@@ -209,12 +206,51 @@
   </si>
   <si>
     <t>&amp;=Table.ORG_NAME</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ca T2-T6</t>
+  </si>
+  <si>
+    <t>Ca CN</t>
+  </si>
+  <si>
+    <t>Ca T7</t>
+  </si>
+  <si>
+    <t>Mã ca T7</t>
+  </si>
+  <si>
+    <t>Mã ca CN</t>
+  </si>
+  <si>
+    <t>Mã ca T2-T6</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(M{r},Shift!$A:$B,2,0)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=VLOOKUP(N{r},Shift!$A:$B,2,0)</t>
+  </si>
+  <si>
+    <t>SHIFT_SAT_NAME</t>
+  </si>
+  <si>
+    <t>SHIFT_SUN_NAME</t>
+  </si>
+  <si>
+    <t>SHIFT_SAT_ID</t>
+  </si>
+  <si>
+    <t>SHIFT_SUN_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -771,730 +807,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="26" style="17" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="32" customWidth="1"/>
-    <col min="15" max="258" width="9.140625" style="17"/>
-    <col min="259" max="259" width="6.5703125" style="17" customWidth="1"/>
-    <col min="260" max="260" width="15.85546875" style="17" customWidth="1"/>
-    <col min="261" max="261" width="27.85546875" style="17" customWidth="1"/>
-    <col min="262" max="262" width="19.85546875" style="17" customWidth="1"/>
-    <col min="263" max="263" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="264" max="265" width="24.140625" style="17" customWidth="1"/>
-    <col min="266" max="266" width="12.7109375" style="17" customWidth="1"/>
-    <col min="267" max="267" width="8.7109375" style="17" customWidth="1"/>
-    <col min="268" max="268" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="23.42578125" style="17" customWidth="1"/>
-    <col min="270" max="514" width="9.140625" style="17"/>
-    <col min="515" max="515" width="6.5703125" style="17" customWidth="1"/>
-    <col min="516" max="516" width="15.85546875" style="17" customWidth="1"/>
-    <col min="517" max="517" width="27.85546875" style="17" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" style="17" customWidth="1"/>
-    <col min="519" max="519" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="520" max="521" width="24.140625" style="17" customWidth="1"/>
-    <col min="522" max="522" width="12.7109375" style="17" customWidth="1"/>
-    <col min="523" max="523" width="8.7109375" style="17" customWidth="1"/>
-    <col min="524" max="524" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="23.42578125" style="17" customWidth="1"/>
-    <col min="526" max="770" width="9.140625" style="17"/>
-    <col min="771" max="771" width="6.5703125" style="17" customWidth="1"/>
-    <col min="772" max="772" width="15.85546875" style="17" customWidth="1"/>
-    <col min="773" max="773" width="27.85546875" style="17" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" style="17" customWidth="1"/>
-    <col min="775" max="775" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="776" max="777" width="24.140625" style="17" customWidth="1"/>
-    <col min="778" max="778" width="12.7109375" style="17" customWidth="1"/>
-    <col min="779" max="779" width="8.7109375" style="17" customWidth="1"/>
-    <col min="780" max="780" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="23.42578125" style="17" customWidth="1"/>
-    <col min="782" max="1026" width="9.140625" style="17"/>
-    <col min="1027" max="1027" width="6.5703125" style="17" customWidth="1"/>
-    <col min="1028" max="1028" width="15.85546875" style="17" customWidth="1"/>
-    <col min="1029" max="1029" width="27.85546875" style="17" customWidth="1"/>
-    <col min="1030" max="1030" width="19.85546875" style="17" customWidth="1"/>
-    <col min="1031" max="1031" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="1032" max="1033" width="24.140625" style="17" customWidth="1"/>
-    <col min="1034" max="1034" width="12.7109375" style="17" customWidth="1"/>
-    <col min="1035" max="1035" width="8.7109375" style="17" customWidth="1"/>
-    <col min="1036" max="1036" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="23.42578125" style="17" customWidth="1"/>
-    <col min="1038" max="1282" width="9.140625" style="17"/>
-    <col min="1283" max="1283" width="6.5703125" style="17" customWidth="1"/>
-    <col min="1284" max="1284" width="15.85546875" style="17" customWidth="1"/>
-    <col min="1285" max="1285" width="27.85546875" style="17" customWidth="1"/>
-    <col min="1286" max="1286" width="19.85546875" style="17" customWidth="1"/>
-    <col min="1287" max="1287" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="1288" max="1289" width="24.140625" style="17" customWidth="1"/>
-    <col min="1290" max="1290" width="12.7109375" style="17" customWidth="1"/>
-    <col min="1291" max="1291" width="8.7109375" style="17" customWidth="1"/>
-    <col min="1292" max="1292" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="23.42578125" style="17" customWidth="1"/>
-    <col min="1294" max="1538" width="9.140625" style="17"/>
-    <col min="1539" max="1539" width="6.5703125" style="17" customWidth="1"/>
-    <col min="1540" max="1540" width="15.85546875" style="17" customWidth="1"/>
-    <col min="1541" max="1541" width="27.85546875" style="17" customWidth="1"/>
-    <col min="1542" max="1542" width="19.85546875" style="17" customWidth="1"/>
-    <col min="1543" max="1543" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="1544" max="1545" width="24.140625" style="17" customWidth="1"/>
-    <col min="1546" max="1546" width="12.7109375" style="17" customWidth="1"/>
-    <col min="1547" max="1547" width="8.7109375" style="17" customWidth="1"/>
-    <col min="1548" max="1548" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="23.42578125" style="17" customWidth="1"/>
-    <col min="1550" max="1794" width="9.140625" style="17"/>
-    <col min="1795" max="1795" width="6.5703125" style="17" customWidth="1"/>
-    <col min="1796" max="1796" width="15.85546875" style="17" customWidth="1"/>
-    <col min="1797" max="1797" width="27.85546875" style="17" customWidth="1"/>
-    <col min="1798" max="1798" width="19.85546875" style="17" customWidth="1"/>
-    <col min="1799" max="1799" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="1800" max="1801" width="24.140625" style="17" customWidth="1"/>
-    <col min="1802" max="1802" width="12.7109375" style="17" customWidth="1"/>
-    <col min="1803" max="1803" width="8.7109375" style="17" customWidth="1"/>
-    <col min="1804" max="1804" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="23.42578125" style="17" customWidth="1"/>
-    <col min="1806" max="2050" width="9.140625" style="17"/>
-    <col min="2051" max="2051" width="6.5703125" style="17" customWidth="1"/>
-    <col min="2052" max="2052" width="15.85546875" style="17" customWidth="1"/>
-    <col min="2053" max="2053" width="27.85546875" style="17" customWidth="1"/>
-    <col min="2054" max="2054" width="19.85546875" style="17" customWidth="1"/>
-    <col min="2055" max="2055" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2056" max="2057" width="24.140625" style="17" customWidth="1"/>
-    <col min="2058" max="2058" width="12.7109375" style="17" customWidth="1"/>
-    <col min="2059" max="2059" width="8.7109375" style="17" customWidth="1"/>
-    <col min="2060" max="2060" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2062" max="2306" width="9.140625" style="17"/>
-    <col min="2307" max="2307" width="6.5703125" style="17" customWidth="1"/>
-    <col min="2308" max="2308" width="15.85546875" style="17" customWidth="1"/>
-    <col min="2309" max="2309" width="27.85546875" style="17" customWidth="1"/>
-    <col min="2310" max="2310" width="19.85546875" style="17" customWidth="1"/>
-    <col min="2311" max="2311" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2312" max="2313" width="24.140625" style="17" customWidth="1"/>
-    <col min="2314" max="2314" width="12.7109375" style="17" customWidth="1"/>
-    <col min="2315" max="2315" width="8.7109375" style="17" customWidth="1"/>
-    <col min="2316" max="2316" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2318" max="2562" width="9.140625" style="17"/>
-    <col min="2563" max="2563" width="6.5703125" style="17" customWidth="1"/>
-    <col min="2564" max="2564" width="15.85546875" style="17" customWidth="1"/>
-    <col min="2565" max="2565" width="27.85546875" style="17" customWidth="1"/>
-    <col min="2566" max="2566" width="19.85546875" style="17" customWidth="1"/>
-    <col min="2567" max="2567" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2568" max="2569" width="24.140625" style="17" customWidth="1"/>
-    <col min="2570" max="2570" width="12.7109375" style="17" customWidth="1"/>
-    <col min="2571" max="2571" width="8.7109375" style="17" customWidth="1"/>
-    <col min="2572" max="2572" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2574" max="2818" width="9.140625" style="17"/>
-    <col min="2819" max="2819" width="6.5703125" style="17" customWidth="1"/>
-    <col min="2820" max="2820" width="15.85546875" style="17" customWidth="1"/>
-    <col min="2821" max="2821" width="27.85546875" style="17" customWidth="1"/>
-    <col min="2822" max="2822" width="19.85546875" style="17" customWidth="1"/>
-    <col min="2823" max="2823" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2824" max="2825" width="24.140625" style="17" customWidth="1"/>
-    <col min="2826" max="2826" width="12.7109375" style="17" customWidth="1"/>
-    <col min="2827" max="2827" width="8.7109375" style="17" customWidth="1"/>
-    <col min="2828" max="2828" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2830" max="3074" width="9.140625" style="17"/>
-    <col min="3075" max="3075" width="6.5703125" style="17" customWidth="1"/>
-    <col min="3076" max="3076" width="15.85546875" style="17" customWidth="1"/>
-    <col min="3077" max="3077" width="27.85546875" style="17" customWidth="1"/>
-    <col min="3078" max="3078" width="19.85546875" style="17" customWidth="1"/>
-    <col min="3079" max="3079" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="3080" max="3081" width="24.140625" style="17" customWidth="1"/>
-    <col min="3082" max="3082" width="12.7109375" style="17" customWidth="1"/>
-    <col min="3083" max="3083" width="8.7109375" style="17" customWidth="1"/>
-    <col min="3084" max="3084" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="23.42578125" style="17" customWidth="1"/>
-    <col min="3086" max="3330" width="9.140625" style="17"/>
-    <col min="3331" max="3331" width="6.5703125" style="17" customWidth="1"/>
-    <col min="3332" max="3332" width="15.85546875" style="17" customWidth="1"/>
-    <col min="3333" max="3333" width="27.85546875" style="17" customWidth="1"/>
-    <col min="3334" max="3334" width="19.85546875" style="17" customWidth="1"/>
-    <col min="3335" max="3335" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="3336" max="3337" width="24.140625" style="17" customWidth="1"/>
-    <col min="3338" max="3338" width="12.7109375" style="17" customWidth="1"/>
-    <col min="3339" max="3339" width="8.7109375" style="17" customWidth="1"/>
-    <col min="3340" max="3340" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="23.42578125" style="17" customWidth="1"/>
-    <col min="3342" max="3586" width="9.140625" style="17"/>
-    <col min="3587" max="3587" width="6.5703125" style="17" customWidth="1"/>
-    <col min="3588" max="3588" width="15.85546875" style="17" customWidth="1"/>
-    <col min="3589" max="3589" width="27.85546875" style="17" customWidth="1"/>
-    <col min="3590" max="3590" width="19.85546875" style="17" customWidth="1"/>
-    <col min="3591" max="3591" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="3592" max="3593" width="24.140625" style="17" customWidth="1"/>
-    <col min="3594" max="3594" width="12.7109375" style="17" customWidth="1"/>
-    <col min="3595" max="3595" width="8.7109375" style="17" customWidth="1"/>
-    <col min="3596" max="3596" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="23.42578125" style="17" customWidth="1"/>
-    <col min="3598" max="3842" width="9.140625" style="17"/>
-    <col min="3843" max="3843" width="6.5703125" style="17" customWidth="1"/>
-    <col min="3844" max="3844" width="15.85546875" style="17" customWidth="1"/>
-    <col min="3845" max="3845" width="27.85546875" style="17" customWidth="1"/>
-    <col min="3846" max="3846" width="19.85546875" style="17" customWidth="1"/>
-    <col min="3847" max="3847" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="3848" max="3849" width="24.140625" style="17" customWidth="1"/>
-    <col min="3850" max="3850" width="12.7109375" style="17" customWidth="1"/>
-    <col min="3851" max="3851" width="8.7109375" style="17" customWidth="1"/>
-    <col min="3852" max="3852" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="23.42578125" style="17" customWidth="1"/>
-    <col min="3854" max="4098" width="9.140625" style="17"/>
-    <col min="4099" max="4099" width="6.5703125" style="17" customWidth="1"/>
-    <col min="4100" max="4100" width="15.85546875" style="17" customWidth="1"/>
-    <col min="4101" max="4101" width="27.85546875" style="17" customWidth="1"/>
-    <col min="4102" max="4102" width="19.85546875" style="17" customWidth="1"/>
-    <col min="4103" max="4103" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="4104" max="4105" width="24.140625" style="17" customWidth="1"/>
-    <col min="4106" max="4106" width="12.7109375" style="17" customWidth="1"/>
-    <col min="4107" max="4107" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4108" max="4108" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="23.42578125" style="17" customWidth="1"/>
-    <col min="4110" max="4354" width="9.140625" style="17"/>
-    <col min="4355" max="4355" width="6.5703125" style="17" customWidth="1"/>
-    <col min="4356" max="4356" width="15.85546875" style="17" customWidth="1"/>
-    <col min="4357" max="4357" width="27.85546875" style="17" customWidth="1"/>
-    <col min="4358" max="4358" width="19.85546875" style="17" customWidth="1"/>
-    <col min="4359" max="4359" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="4360" max="4361" width="24.140625" style="17" customWidth="1"/>
-    <col min="4362" max="4362" width="12.7109375" style="17" customWidth="1"/>
-    <col min="4363" max="4363" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4364" max="4364" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="23.42578125" style="17" customWidth="1"/>
-    <col min="4366" max="4610" width="9.140625" style="17"/>
-    <col min="4611" max="4611" width="6.5703125" style="17" customWidth="1"/>
-    <col min="4612" max="4612" width="15.85546875" style="17" customWidth="1"/>
-    <col min="4613" max="4613" width="27.85546875" style="17" customWidth="1"/>
-    <col min="4614" max="4614" width="19.85546875" style="17" customWidth="1"/>
-    <col min="4615" max="4615" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="4616" max="4617" width="24.140625" style="17" customWidth="1"/>
-    <col min="4618" max="4618" width="12.7109375" style="17" customWidth="1"/>
-    <col min="4619" max="4619" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4620" max="4620" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="23.42578125" style="17" customWidth="1"/>
-    <col min="4622" max="4866" width="9.140625" style="17"/>
-    <col min="4867" max="4867" width="6.5703125" style="17" customWidth="1"/>
-    <col min="4868" max="4868" width="15.85546875" style="17" customWidth="1"/>
-    <col min="4869" max="4869" width="27.85546875" style="17" customWidth="1"/>
-    <col min="4870" max="4870" width="19.85546875" style="17" customWidth="1"/>
-    <col min="4871" max="4871" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="4872" max="4873" width="24.140625" style="17" customWidth="1"/>
-    <col min="4874" max="4874" width="12.7109375" style="17" customWidth="1"/>
-    <col min="4875" max="4875" width="8.7109375" style="17" customWidth="1"/>
-    <col min="4876" max="4876" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="23.42578125" style="17" customWidth="1"/>
-    <col min="4878" max="5122" width="9.140625" style="17"/>
-    <col min="5123" max="5123" width="6.5703125" style="17" customWidth="1"/>
-    <col min="5124" max="5124" width="15.85546875" style="17" customWidth="1"/>
-    <col min="5125" max="5125" width="27.85546875" style="17" customWidth="1"/>
-    <col min="5126" max="5126" width="19.85546875" style="17" customWidth="1"/>
-    <col min="5127" max="5127" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="5128" max="5129" width="24.140625" style="17" customWidth="1"/>
-    <col min="5130" max="5130" width="12.7109375" style="17" customWidth="1"/>
-    <col min="5131" max="5131" width="8.7109375" style="17" customWidth="1"/>
-    <col min="5132" max="5132" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="23.42578125" style="17" customWidth="1"/>
-    <col min="5134" max="5378" width="9.140625" style="17"/>
-    <col min="5379" max="5379" width="6.5703125" style="17" customWidth="1"/>
-    <col min="5380" max="5380" width="15.85546875" style="17" customWidth="1"/>
-    <col min="5381" max="5381" width="27.85546875" style="17" customWidth="1"/>
-    <col min="5382" max="5382" width="19.85546875" style="17" customWidth="1"/>
-    <col min="5383" max="5383" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="5384" max="5385" width="24.140625" style="17" customWidth="1"/>
-    <col min="5386" max="5386" width="12.7109375" style="17" customWidth="1"/>
-    <col min="5387" max="5387" width="8.7109375" style="17" customWidth="1"/>
-    <col min="5388" max="5388" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="23.42578125" style="17" customWidth="1"/>
-    <col min="5390" max="5634" width="9.140625" style="17"/>
-    <col min="5635" max="5635" width="6.5703125" style="17" customWidth="1"/>
-    <col min="5636" max="5636" width="15.85546875" style="17" customWidth="1"/>
-    <col min="5637" max="5637" width="27.85546875" style="17" customWidth="1"/>
-    <col min="5638" max="5638" width="19.85546875" style="17" customWidth="1"/>
-    <col min="5639" max="5639" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="5640" max="5641" width="24.140625" style="17" customWidth="1"/>
-    <col min="5642" max="5642" width="12.7109375" style="17" customWidth="1"/>
-    <col min="5643" max="5643" width="8.7109375" style="17" customWidth="1"/>
-    <col min="5644" max="5644" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="23.42578125" style="17" customWidth="1"/>
-    <col min="5646" max="5890" width="9.140625" style="17"/>
-    <col min="5891" max="5891" width="6.5703125" style="17" customWidth="1"/>
-    <col min="5892" max="5892" width="15.85546875" style="17" customWidth="1"/>
-    <col min="5893" max="5893" width="27.85546875" style="17" customWidth="1"/>
-    <col min="5894" max="5894" width="19.85546875" style="17" customWidth="1"/>
-    <col min="5895" max="5895" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="5896" max="5897" width="24.140625" style="17" customWidth="1"/>
-    <col min="5898" max="5898" width="12.7109375" style="17" customWidth="1"/>
-    <col min="5899" max="5899" width="8.7109375" style="17" customWidth="1"/>
-    <col min="5900" max="5900" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="23.42578125" style="17" customWidth="1"/>
-    <col min="5902" max="6146" width="9.140625" style="17"/>
-    <col min="6147" max="6147" width="6.5703125" style="17" customWidth="1"/>
-    <col min="6148" max="6148" width="15.85546875" style="17" customWidth="1"/>
-    <col min="6149" max="6149" width="27.85546875" style="17" customWidth="1"/>
-    <col min="6150" max="6150" width="19.85546875" style="17" customWidth="1"/>
-    <col min="6151" max="6151" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="6152" max="6153" width="24.140625" style="17" customWidth="1"/>
-    <col min="6154" max="6154" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6155" max="6155" width="8.7109375" style="17" customWidth="1"/>
-    <col min="6156" max="6156" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="23.42578125" style="17" customWidth="1"/>
-    <col min="6158" max="6402" width="9.140625" style="17"/>
-    <col min="6403" max="6403" width="6.5703125" style="17" customWidth="1"/>
-    <col min="6404" max="6404" width="15.85546875" style="17" customWidth="1"/>
-    <col min="6405" max="6405" width="27.85546875" style="17" customWidth="1"/>
-    <col min="6406" max="6406" width="19.85546875" style="17" customWidth="1"/>
-    <col min="6407" max="6407" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="6408" max="6409" width="24.140625" style="17" customWidth="1"/>
-    <col min="6410" max="6410" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6411" max="6411" width="8.7109375" style="17" customWidth="1"/>
-    <col min="6412" max="6412" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="23.42578125" style="17" customWidth="1"/>
-    <col min="6414" max="6658" width="9.140625" style="17"/>
-    <col min="6659" max="6659" width="6.5703125" style="17" customWidth="1"/>
-    <col min="6660" max="6660" width="15.85546875" style="17" customWidth="1"/>
-    <col min="6661" max="6661" width="27.85546875" style="17" customWidth="1"/>
-    <col min="6662" max="6662" width="19.85546875" style="17" customWidth="1"/>
-    <col min="6663" max="6663" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="6664" max="6665" width="24.140625" style="17" customWidth="1"/>
-    <col min="6666" max="6666" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6667" max="6667" width="8.7109375" style="17" customWidth="1"/>
-    <col min="6668" max="6668" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="23.42578125" style="17" customWidth="1"/>
-    <col min="6670" max="6914" width="9.140625" style="17"/>
-    <col min="6915" max="6915" width="6.5703125" style="17" customWidth="1"/>
-    <col min="6916" max="6916" width="15.85546875" style="17" customWidth="1"/>
-    <col min="6917" max="6917" width="27.85546875" style="17" customWidth="1"/>
-    <col min="6918" max="6918" width="19.85546875" style="17" customWidth="1"/>
-    <col min="6919" max="6919" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="6920" max="6921" width="24.140625" style="17" customWidth="1"/>
-    <col min="6922" max="6922" width="12.7109375" style="17" customWidth="1"/>
-    <col min="6923" max="6923" width="8.7109375" style="17" customWidth="1"/>
-    <col min="6924" max="6924" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="23.42578125" style="17" customWidth="1"/>
-    <col min="6926" max="7170" width="9.140625" style="17"/>
-    <col min="7171" max="7171" width="6.5703125" style="17" customWidth="1"/>
-    <col min="7172" max="7172" width="15.85546875" style="17" customWidth="1"/>
-    <col min="7173" max="7173" width="27.85546875" style="17" customWidth="1"/>
-    <col min="7174" max="7174" width="19.85546875" style="17" customWidth="1"/>
-    <col min="7175" max="7175" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="7176" max="7177" width="24.140625" style="17" customWidth="1"/>
-    <col min="7178" max="7178" width="12.7109375" style="17" customWidth="1"/>
-    <col min="7179" max="7179" width="8.7109375" style="17" customWidth="1"/>
-    <col min="7180" max="7180" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="23.42578125" style="17" customWidth="1"/>
-    <col min="7182" max="7426" width="9.140625" style="17"/>
-    <col min="7427" max="7427" width="6.5703125" style="17" customWidth="1"/>
-    <col min="7428" max="7428" width="15.85546875" style="17" customWidth="1"/>
-    <col min="7429" max="7429" width="27.85546875" style="17" customWidth="1"/>
-    <col min="7430" max="7430" width="19.85546875" style="17" customWidth="1"/>
-    <col min="7431" max="7431" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="7432" max="7433" width="24.140625" style="17" customWidth="1"/>
-    <col min="7434" max="7434" width="12.7109375" style="17" customWidth="1"/>
-    <col min="7435" max="7435" width="8.7109375" style="17" customWidth="1"/>
-    <col min="7436" max="7436" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="23.42578125" style="17" customWidth="1"/>
-    <col min="7438" max="7682" width="9.140625" style="17"/>
-    <col min="7683" max="7683" width="6.5703125" style="17" customWidth="1"/>
-    <col min="7684" max="7684" width="15.85546875" style="17" customWidth="1"/>
-    <col min="7685" max="7685" width="27.85546875" style="17" customWidth="1"/>
-    <col min="7686" max="7686" width="19.85546875" style="17" customWidth="1"/>
-    <col min="7687" max="7687" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="7688" max="7689" width="24.140625" style="17" customWidth="1"/>
-    <col min="7690" max="7690" width="12.7109375" style="17" customWidth="1"/>
-    <col min="7691" max="7691" width="8.7109375" style="17" customWidth="1"/>
-    <col min="7692" max="7692" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="23.42578125" style="17" customWidth="1"/>
-    <col min="7694" max="7938" width="9.140625" style="17"/>
-    <col min="7939" max="7939" width="6.5703125" style="17" customWidth="1"/>
-    <col min="7940" max="7940" width="15.85546875" style="17" customWidth="1"/>
-    <col min="7941" max="7941" width="27.85546875" style="17" customWidth="1"/>
-    <col min="7942" max="7942" width="19.85546875" style="17" customWidth="1"/>
-    <col min="7943" max="7943" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="7944" max="7945" width="24.140625" style="17" customWidth="1"/>
-    <col min="7946" max="7946" width="12.7109375" style="17" customWidth="1"/>
-    <col min="7947" max="7947" width="8.7109375" style="17" customWidth="1"/>
-    <col min="7948" max="7948" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="23.42578125" style="17" customWidth="1"/>
-    <col min="7950" max="8194" width="9.140625" style="17"/>
-    <col min="8195" max="8195" width="6.5703125" style="17" customWidth="1"/>
-    <col min="8196" max="8196" width="15.85546875" style="17" customWidth="1"/>
-    <col min="8197" max="8197" width="27.85546875" style="17" customWidth="1"/>
-    <col min="8198" max="8198" width="19.85546875" style="17" customWidth="1"/>
-    <col min="8199" max="8199" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="8200" max="8201" width="24.140625" style="17" customWidth="1"/>
-    <col min="8202" max="8202" width="12.7109375" style="17" customWidth="1"/>
-    <col min="8203" max="8203" width="8.7109375" style="17" customWidth="1"/>
-    <col min="8204" max="8204" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="23.42578125" style="17" customWidth="1"/>
-    <col min="8206" max="8450" width="9.140625" style="17"/>
-    <col min="8451" max="8451" width="6.5703125" style="17" customWidth="1"/>
-    <col min="8452" max="8452" width="15.85546875" style="17" customWidth="1"/>
-    <col min="8453" max="8453" width="27.85546875" style="17" customWidth="1"/>
-    <col min="8454" max="8454" width="19.85546875" style="17" customWidth="1"/>
-    <col min="8455" max="8455" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="8456" max="8457" width="24.140625" style="17" customWidth="1"/>
-    <col min="8458" max="8458" width="12.7109375" style="17" customWidth="1"/>
-    <col min="8459" max="8459" width="8.7109375" style="17" customWidth="1"/>
-    <col min="8460" max="8460" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="23.42578125" style="17" customWidth="1"/>
-    <col min="8462" max="8706" width="9.140625" style="17"/>
-    <col min="8707" max="8707" width="6.5703125" style="17" customWidth="1"/>
-    <col min="8708" max="8708" width="15.85546875" style="17" customWidth="1"/>
-    <col min="8709" max="8709" width="27.85546875" style="17" customWidth="1"/>
-    <col min="8710" max="8710" width="19.85546875" style="17" customWidth="1"/>
-    <col min="8711" max="8711" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="8712" max="8713" width="24.140625" style="17" customWidth="1"/>
-    <col min="8714" max="8714" width="12.7109375" style="17" customWidth="1"/>
-    <col min="8715" max="8715" width="8.7109375" style="17" customWidth="1"/>
-    <col min="8716" max="8716" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="23.42578125" style="17" customWidth="1"/>
-    <col min="8718" max="8962" width="9.140625" style="17"/>
-    <col min="8963" max="8963" width="6.5703125" style="17" customWidth="1"/>
-    <col min="8964" max="8964" width="15.85546875" style="17" customWidth="1"/>
-    <col min="8965" max="8965" width="27.85546875" style="17" customWidth="1"/>
-    <col min="8966" max="8966" width="19.85546875" style="17" customWidth="1"/>
-    <col min="8967" max="8967" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="8968" max="8969" width="24.140625" style="17" customWidth="1"/>
-    <col min="8970" max="8970" width="12.7109375" style="17" customWidth="1"/>
-    <col min="8971" max="8971" width="8.7109375" style="17" customWidth="1"/>
-    <col min="8972" max="8972" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="23.42578125" style="17" customWidth="1"/>
-    <col min="8974" max="9218" width="9.140625" style="17"/>
-    <col min="9219" max="9219" width="6.5703125" style="17" customWidth="1"/>
-    <col min="9220" max="9220" width="15.85546875" style="17" customWidth="1"/>
-    <col min="9221" max="9221" width="27.85546875" style="17" customWidth="1"/>
-    <col min="9222" max="9222" width="19.85546875" style="17" customWidth="1"/>
-    <col min="9223" max="9223" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="9224" max="9225" width="24.140625" style="17" customWidth="1"/>
-    <col min="9226" max="9226" width="12.7109375" style="17" customWidth="1"/>
-    <col min="9227" max="9227" width="8.7109375" style="17" customWidth="1"/>
-    <col min="9228" max="9228" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="23.42578125" style="17" customWidth="1"/>
-    <col min="9230" max="9474" width="9.140625" style="17"/>
-    <col min="9475" max="9475" width="6.5703125" style="17" customWidth="1"/>
-    <col min="9476" max="9476" width="15.85546875" style="17" customWidth="1"/>
-    <col min="9477" max="9477" width="27.85546875" style="17" customWidth="1"/>
-    <col min="9478" max="9478" width="19.85546875" style="17" customWidth="1"/>
-    <col min="9479" max="9479" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="9480" max="9481" width="24.140625" style="17" customWidth="1"/>
-    <col min="9482" max="9482" width="12.7109375" style="17" customWidth="1"/>
-    <col min="9483" max="9483" width="8.7109375" style="17" customWidth="1"/>
-    <col min="9484" max="9484" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="23.42578125" style="17" customWidth="1"/>
-    <col min="9486" max="9730" width="9.140625" style="17"/>
-    <col min="9731" max="9731" width="6.5703125" style="17" customWidth="1"/>
-    <col min="9732" max="9732" width="15.85546875" style="17" customWidth="1"/>
-    <col min="9733" max="9733" width="27.85546875" style="17" customWidth="1"/>
-    <col min="9734" max="9734" width="19.85546875" style="17" customWidth="1"/>
-    <col min="9735" max="9735" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="9736" max="9737" width="24.140625" style="17" customWidth="1"/>
-    <col min="9738" max="9738" width="12.7109375" style="17" customWidth="1"/>
-    <col min="9739" max="9739" width="8.7109375" style="17" customWidth="1"/>
-    <col min="9740" max="9740" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="23.42578125" style="17" customWidth="1"/>
-    <col min="9742" max="9986" width="9.140625" style="17"/>
-    <col min="9987" max="9987" width="6.5703125" style="17" customWidth="1"/>
-    <col min="9988" max="9988" width="15.85546875" style="17" customWidth="1"/>
-    <col min="9989" max="9989" width="27.85546875" style="17" customWidth="1"/>
-    <col min="9990" max="9990" width="19.85546875" style="17" customWidth="1"/>
-    <col min="9991" max="9991" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="9992" max="9993" width="24.140625" style="17" customWidth="1"/>
-    <col min="9994" max="9994" width="12.7109375" style="17" customWidth="1"/>
-    <col min="9995" max="9995" width="8.7109375" style="17" customWidth="1"/>
-    <col min="9996" max="9996" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="23.42578125" style="17" customWidth="1"/>
-    <col min="9998" max="10242" width="9.140625" style="17"/>
-    <col min="10243" max="10243" width="6.5703125" style="17" customWidth="1"/>
-    <col min="10244" max="10244" width="15.85546875" style="17" customWidth="1"/>
-    <col min="10245" max="10245" width="27.85546875" style="17" customWidth="1"/>
-    <col min="10246" max="10246" width="19.85546875" style="17" customWidth="1"/>
-    <col min="10247" max="10247" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="10248" max="10249" width="24.140625" style="17" customWidth="1"/>
-    <col min="10250" max="10250" width="12.7109375" style="17" customWidth="1"/>
-    <col min="10251" max="10251" width="8.7109375" style="17" customWidth="1"/>
-    <col min="10252" max="10252" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="23.42578125" style="17" customWidth="1"/>
-    <col min="10254" max="10498" width="9.140625" style="17"/>
-    <col min="10499" max="10499" width="6.5703125" style="17" customWidth="1"/>
-    <col min="10500" max="10500" width="15.85546875" style="17" customWidth="1"/>
-    <col min="10501" max="10501" width="27.85546875" style="17" customWidth="1"/>
-    <col min="10502" max="10502" width="19.85546875" style="17" customWidth="1"/>
-    <col min="10503" max="10503" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="10504" max="10505" width="24.140625" style="17" customWidth="1"/>
-    <col min="10506" max="10506" width="12.7109375" style="17" customWidth="1"/>
-    <col min="10507" max="10507" width="8.7109375" style="17" customWidth="1"/>
-    <col min="10508" max="10508" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="23.42578125" style="17" customWidth="1"/>
-    <col min="10510" max="10754" width="9.140625" style="17"/>
-    <col min="10755" max="10755" width="6.5703125" style="17" customWidth="1"/>
-    <col min="10756" max="10756" width="15.85546875" style="17" customWidth="1"/>
-    <col min="10757" max="10757" width="27.85546875" style="17" customWidth="1"/>
-    <col min="10758" max="10758" width="19.85546875" style="17" customWidth="1"/>
-    <col min="10759" max="10759" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="10760" max="10761" width="24.140625" style="17" customWidth="1"/>
-    <col min="10762" max="10762" width="12.7109375" style="17" customWidth="1"/>
-    <col min="10763" max="10763" width="8.7109375" style="17" customWidth="1"/>
-    <col min="10764" max="10764" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="23.42578125" style="17" customWidth="1"/>
-    <col min="10766" max="11010" width="9.140625" style="17"/>
-    <col min="11011" max="11011" width="6.5703125" style="17" customWidth="1"/>
-    <col min="11012" max="11012" width="15.85546875" style="17" customWidth="1"/>
-    <col min="11013" max="11013" width="27.85546875" style="17" customWidth="1"/>
-    <col min="11014" max="11014" width="19.85546875" style="17" customWidth="1"/>
-    <col min="11015" max="11015" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="11016" max="11017" width="24.140625" style="17" customWidth="1"/>
-    <col min="11018" max="11018" width="12.7109375" style="17" customWidth="1"/>
-    <col min="11019" max="11019" width="8.7109375" style="17" customWidth="1"/>
-    <col min="11020" max="11020" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="23.42578125" style="17" customWidth="1"/>
-    <col min="11022" max="11266" width="9.140625" style="17"/>
-    <col min="11267" max="11267" width="6.5703125" style="17" customWidth="1"/>
-    <col min="11268" max="11268" width="15.85546875" style="17" customWidth="1"/>
-    <col min="11269" max="11269" width="27.85546875" style="17" customWidth="1"/>
-    <col min="11270" max="11270" width="19.85546875" style="17" customWidth="1"/>
-    <col min="11271" max="11271" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="11272" max="11273" width="24.140625" style="17" customWidth="1"/>
-    <col min="11274" max="11274" width="12.7109375" style="17" customWidth="1"/>
-    <col min="11275" max="11275" width="8.7109375" style="17" customWidth="1"/>
-    <col min="11276" max="11276" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="23.42578125" style="17" customWidth="1"/>
-    <col min="11278" max="11522" width="9.140625" style="17"/>
-    <col min="11523" max="11523" width="6.5703125" style="17" customWidth="1"/>
-    <col min="11524" max="11524" width="15.85546875" style="17" customWidth="1"/>
-    <col min="11525" max="11525" width="27.85546875" style="17" customWidth="1"/>
-    <col min="11526" max="11526" width="19.85546875" style="17" customWidth="1"/>
-    <col min="11527" max="11527" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="11528" max="11529" width="24.140625" style="17" customWidth="1"/>
-    <col min="11530" max="11530" width="12.7109375" style="17" customWidth="1"/>
-    <col min="11531" max="11531" width="8.7109375" style="17" customWidth="1"/>
-    <col min="11532" max="11532" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="23.42578125" style="17" customWidth="1"/>
-    <col min="11534" max="11778" width="9.140625" style="17"/>
-    <col min="11779" max="11779" width="6.5703125" style="17" customWidth="1"/>
-    <col min="11780" max="11780" width="15.85546875" style="17" customWidth="1"/>
-    <col min="11781" max="11781" width="27.85546875" style="17" customWidth="1"/>
-    <col min="11782" max="11782" width="19.85546875" style="17" customWidth="1"/>
-    <col min="11783" max="11783" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="11784" max="11785" width="24.140625" style="17" customWidth="1"/>
-    <col min="11786" max="11786" width="12.7109375" style="17" customWidth="1"/>
-    <col min="11787" max="11787" width="8.7109375" style="17" customWidth="1"/>
-    <col min="11788" max="11788" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="23.42578125" style="17" customWidth="1"/>
-    <col min="11790" max="12034" width="9.140625" style="17"/>
-    <col min="12035" max="12035" width="6.5703125" style="17" customWidth="1"/>
-    <col min="12036" max="12036" width="15.85546875" style="17" customWidth="1"/>
-    <col min="12037" max="12037" width="27.85546875" style="17" customWidth="1"/>
-    <col min="12038" max="12038" width="19.85546875" style="17" customWidth="1"/>
-    <col min="12039" max="12039" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="12040" max="12041" width="24.140625" style="17" customWidth="1"/>
-    <col min="12042" max="12042" width="12.7109375" style="17" customWidth="1"/>
-    <col min="12043" max="12043" width="8.7109375" style="17" customWidth="1"/>
-    <col min="12044" max="12044" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="23.42578125" style="17" customWidth="1"/>
-    <col min="12046" max="12290" width="9.140625" style="17"/>
-    <col min="12291" max="12291" width="6.5703125" style="17" customWidth="1"/>
-    <col min="12292" max="12292" width="15.85546875" style="17" customWidth="1"/>
-    <col min="12293" max="12293" width="27.85546875" style="17" customWidth="1"/>
-    <col min="12294" max="12294" width="19.85546875" style="17" customWidth="1"/>
-    <col min="12295" max="12295" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="12296" max="12297" width="24.140625" style="17" customWidth="1"/>
-    <col min="12298" max="12298" width="12.7109375" style="17" customWidth="1"/>
-    <col min="12299" max="12299" width="8.7109375" style="17" customWidth="1"/>
-    <col min="12300" max="12300" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="23.42578125" style="17" customWidth="1"/>
-    <col min="12302" max="12546" width="9.140625" style="17"/>
-    <col min="12547" max="12547" width="6.5703125" style="17" customWidth="1"/>
-    <col min="12548" max="12548" width="15.85546875" style="17" customWidth="1"/>
-    <col min="12549" max="12549" width="27.85546875" style="17" customWidth="1"/>
-    <col min="12550" max="12550" width="19.85546875" style="17" customWidth="1"/>
-    <col min="12551" max="12551" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="12552" max="12553" width="24.140625" style="17" customWidth="1"/>
-    <col min="12554" max="12554" width="12.7109375" style="17" customWidth="1"/>
-    <col min="12555" max="12555" width="8.7109375" style="17" customWidth="1"/>
-    <col min="12556" max="12556" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="23.42578125" style="17" customWidth="1"/>
-    <col min="12558" max="12802" width="9.140625" style="17"/>
-    <col min="12803" max="12803" width="6.5703125" style="17" customWidth="1"/>
-    <col min="12804" max="12804" width="15.85546875" style="17" customWidth="1"/>
-    <col min="12805" max="12805" width="27.85546875" style="17" customWidth="1"/>
-    <col min="12806" max="12806" width="19.85546875" style="17" customWidth="1"/>
-    <col min="12807" max="12807" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="12808" max="12809" width="24.140625" style="17" customWidth="1"/>
-    <col min="12810" max="12810" width="12.7109375" style="17" customWidth="1"/>
-    <col min="12811" max="12811" width="8.7109375" style="17" customWidth="1"/>
-    <col min="12812" max="12812" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="23.42578125" style="17" customWidth="1"/>
-    <col min="12814" max="13058" width="9.140625" style="17"/>
-    <col min="13059" max="13059" width="6.5703125" style="17" customWidth="1"/>
-    <col min="13060" max="13060" width="15.85546875" style="17" customWidth="1"/>
-    <col min="13061" max="13061" width="27.85546875" style="17" customWidth="1"/>
-    <col min="13062" max="13062" width="19.85546875" style="17" customWidth="1"/>
-    <col min="13063" max="13063" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="13064" max="13065" width="24.140625" style="17" customWidth="1"/>
-    <col min="13066" max="13066" width="12.7109375" style="17" customWidth="1"/>
-    <col min="13067" max="13067" width="8.7109375" style="17" customWidth="1"/>
-    <col min="13068" max="13068" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="23.42578125" style="17" customWidth="1"/>
-    <col min="13070" max="13314" width="9.140625" style="17"/>
-    <col min="13315" max="13315" width="6.5703125" style="17" customWidth="1"/>
-    <col min="13316" max="13316" width="15.85546875" style="17" customWidth="1"/>
-    <col min="13317" max="13317" width="27.85546875" style="17" customWidth="1"/>
-    <col min="13318" max="13318" width="19.85546875" style="17" customWidth="1"/>
-    <col min="13319" max="13319" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="13320" max="13321" width="24.140625" style="17" customWidth="1"/>
-    <col min="13322" max="13322" width="12.7109375" style="17" customWidth="1"/>
-    <col min="13323" max="13323" width="8.7109375" style="17" customWidth="1"/>
-    <col min="13324" max="13324" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="23.42578125" style="17" customWidth="1"/>
-    <col min="13326" max="13570" width="9.140625" style="17"/>
-    <col min="13571" max="13571" width="6.5703125" style="17" customWidth="1"/>
-    <col min="13572" max="13572" width="15.85546875" style="17" customWidth="1"/>
-    <col min="13573" max="13573" width="27.85546875" style="17" customWidth="1"/>
-    <col min="13574" max="13574" width="19.85546875" style="17" customWidth="1"/>
-    <col min="13575" max="13575" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="13576" max="13577" width="24.140625" style="17" customWidth="1"/>
-    <col min="13578" max="13578" width="12.7109375" style="17" customWidth="1"/>
-    <col min="13579" max="13579" width="8.7109375" style="17" customWidth="1"/>
-    <col min="13580" max="13580" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="23.42578125" style="17" customWidth="1"/>
-    <col min="13582" max="13826" width="9.140625" style="17"/>
-    <col min="13827" max="13827" width="6.5703125" style="17" customWidth="1"/>
-    <col min="13828" max="13828" width="15.85546875" style="17" customWidth="1"/>
-    <col min="13829" max="13829" width="27.85546875" style="17" customWidth="1"/>
-    <col min="13830" max="13830" width="19.85546875" style="17" customWidth="1"/>
-    <col min="13831" max="13831" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="13832" max="13833" width="24.140625" style="17" customWidth="1"/>
-    <col min="13834" max="13834" width="12.7109375" style="17" customWidth="1"/>
-    <col min="13835" max="13835" width="8.7109375" style="17" customWidth="1"/>
-    <col min="13836" max="13836" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="23.42578125" style="17" customWidth="1"/>
-    <col min="13838" max="14082" width="9.140625" style="17"/>
-    <col min="14083" max="14083" width="6.5703125" style="17" customWidth="1"/>
-    <col min="14084" max="14084" width="15.85546875" style="17" customWidth="1"/>
-    <col min="14085" max="14085" width="27.85546875" style="17" customWidth="1"/>
-    <col min="14086" max="14086" width="19.85546875" style="17" customWidth="1"/>
-    <col min="14087" max="14087" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="14088" max="14089" width="24.140625" style="17" customWidth="1"/>
-    <col min="14090" max="14090" width="12.7109375" style="17" customWidth="1"/>
-    <col min="14091" max="14091" width="8.7109375" style="17" customWidth="1"/>
-    <col min="14092" max="14092" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="23.42578125" style="17" customWidth="1"/>
-    <col min="14094" max="14338" width="9.140625" style="17"/>
-    <col min="14339" max="14339" width="6.5703125" style="17" customWidth="1"/>
-    <col min="14340" max="14340" width="15.85546875" style="17" customWidth="1"/>
-    <col min="14341" max="14341" width="27.85546875" style="17" customWidth="1"/>
-    <col min="14342" max="14342" width="19.85546875" style="17" customWidth="1"/>
-    <col min="14343" max="14343" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="14344" max="14345" width="24.140625" style="17" customWidth="1"/>
-    <col min="14346" max="14346" width="12.7109375" style="17" customWidth="1"/>
-    <col min="14347" max="14347" width="8.7109375" style="17" customWidth="1"/>
-    <col min="14348" max="14348" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="23.42578125" style="17" customWidth="1"/>
-    <col min="14350" max="14594" width="9.140625" style="17"/>
-    <col min="14595" max="14595" width="6.5703125" style="17" customWidth="1"/>
-    <col min="14596" max="14596" width="15.85546875" style="17" customWidth="1"/>
-    <col min="14597" max="14597" width="27.85546875" style="17" customWidth="1"/>
-    <col min="14598" max="14598" width="19.85546875" style="17" customWidth="1"/>
-    <col min="14599" max="14599" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="14600" max="14601" width="24.140625" style="17" customWidth="1"/>
-    <col min="14602" max="14602" width="12.7109375" style="17" customWidth="1"/>
-    <col min="14603" max="14603" width="8.7109375" style="17" customWidth="1"/>
-    <col min="14604" max="14604" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="23.42578125" style="17" customWidth="1"/>
-    <col min="14606" max="14850" width="9.140625" style="17"/>
-    <col min="14851" max="14851" width="6.5703125" style="17" customWidth="1"/>
-    <col min="14852" max="14852" width="15.85546875" style="17" customWidth="1"/>
-    <col min="14853" max="14853" width="27.85546875" style="17" customWidth="1"/>
-    <col min="14854" max="14854" width="19.85546875" style="17" customWidth="1"/>
-    <col min="14855" max="14855" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="14856" max="14857" width="24.140625" style="17" customWidth="1"/>
-    <col min="14858" max="14858" width="12.7109375" style="17" customWidth="1"/>
-    <col min="14859" max="14859" width="8.7109375" style="17" customWidth="1"/>
-    <col min="14860" max="14860" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="23.42578125" style="17" customWidth="1"/>
-    <col min="14862" max="15106" width="9.140625" style="17"/>
-    <col min="15107" max="15107" width="6.5703125" style="17" customWidth="1"/>
-    <col min="15108" max="15108" width="15.85546875" style="17" customWidth="1"/>
-    <col min="15109" max="15109" width="27.85546875" style="17" customWidth="1"/>
-    <col min="15110" max="15110" width="19.85546875" style="17" customWidth="1"/>
-    <col min="15111" max="15111" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="15112" max="15113" width="24.140625" style="17" customWidth="1"/>
-    <col min="15114" max="15114" width="12.7109375" style="17" customWidth="1"/>
-    <col min="15115" max="15115" width="8.7109375" style="17" customWidth="1"/>
-    <col min="15116" max="15116" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="23.42578125" style="17" customWidth="1"/>
-    <col min="15118" max="15362" width="9.140625" style="17"/>
-    <col min="15363" max="15363" width="6.5703125" style="17" customWidth="1"/>
-    <col min="15364" max="15364" width="15.85546875" style="17" customWidth="1"/>
-    <col min="15365" max="15365" width="27.85546875" style="17" customWidth="1"/>
-    <col min="15366" max="15366" width="19.85546875" style="17" customWidth="1"/>
-    <col min="15367" max="15367" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="15368" max="15369" width="24.140625" style="17" customWidth="1"/>
-    <col min="15370" max="15370" width="12.7109375" style="17" customWidth="1"/>
-    <col min="15371" max="15371" width="8.7109375" style="17" customWidth="1"/>
-    <col min="15372" max="15372" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="23.42578125" style="17" customWidth="1"/>
-    <col min="15374" max="15618" width="9.140625" style="17"/>
-    <col min="15619" max="15619" width="6.5703125" style="17" customWidth="1"/>
-    <col min="15620" max="15620" width="15.85546875" style="17" customWidth="1"/>
-    <col min="15621" max="15621" width="27.85546875" style="17" customWidth="1"/>
-    <col min="15622" max="15622" width="19.85546875" style="17" customWidth="1"/>
-    <col min="15623" max="15623" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="15624" max="15625" width="24.140625" style="17" customWidth="1"/>
-    <col min="15626" max="15626" width="12.7109375" style="17" customWidth="1"/>
-    <col min="15627" max="15627" width="8.7109375" style="17" customWidth="1"/>
-    <col min="15628" max="15628" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="23.42578125" style="17" customWidth="1"/>
-    <col min="15630" max="15874" width="9.140625" style="17"/>
-    <col min="15875" max="15875" width="6.5703125" style="17" customWidth="1"/>
-    <col min="15876" max="15876" width="15.85546875" style="17" customWidth="1"/>
-    <col min="15877" max="15877" width="27.85546875" style="17" customWidth="1"/>
-    <col min="15878" max="15878" width="19.85546875" style="17" customWidth="1"/>
-    <col min="15879" max="15879" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="15880" max="15881" width="24.140625" style="17" customWidth="1"/>
-    <col min="15882" max="15882" width="12.7109375" style="17" customWidth="1"/>
-    <col min="15883" max="15883" width="8.7109375" style="17" customWidth="1"/>
-    <col min="15884" max="15884" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="23.42578125" style="17" customWidth="1"/>
-    <col min="15886" max="16130" width="9.140625" style="17"/>
-    <col min="16131" max="16131" width="6.5703125" style="17" customWidth="1"/>
-    <col min="16132" max="16132" width="15.85546875" style="17" customWidth="1"/>
-    <col min="16133" max="16133" width="27.85546875" style="17" customWidth="1"/>
-    <col min="16134" max="16134" width="19.85546875" style="17" customWidth="1"/>
-    <col min="16135" max="16135" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="16136" max="16137" width="24.140625" style="17" customWidth="1"/>
-    <col min="16138" max="16138" width="12.7109375" style="17" customWidth="1"/>
-    <col min="16139" max="16139" width="8.7109375" style="17" customWidth="1"/>
-    <col min="16140" max="16140" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="23.42578125" style="17" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="6.59765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.86328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.86328125" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.1328125" style="9" customWidth="1"/>
+    <col min="12" max="14" width="17.265625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="26" style="17" customWidth="1"/>
+    <col min="16" max="18" width="16.59765625" style="32" customWidth="1"/>
+    <col min="19" max="260" width="9.1328125" style="17"/>
+    <col min="261" max="261" width="6.59765625" style="17" customWidth="1"/>
+    <col min="262" max="262" width="15.86328125" style="17" customWidth="1"/>
+    <col min="263" max="263" width="27.86328125" style="17" customWidth="1"/>
+    <col min="264" max="264" width="19.86328125" style="17" customWidth="1"/>
+    <col min="265" max="265" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="266" max="267" width="24.1328125" style="17" customWidth="1"/>
+    <col min="268" max="268" width="12.73046875" style="17" customWidth="1"/>
+    <col min="269" max="269" width="8.73046875" style="17" customWidth="1"/>
+    <col min="270" max="270" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="23.3984375" style="17" customWidth="1"/>
+    <col min="272" max="516" width="9.1328125" style="17"/>
+    <col min="517" max="517" width="6.59765625" style="17" customWidth="1"/>
+    <col min="518" max="518" width="15.86328125" style="17" customWidth="1"/>
+    <col min="519" max="519" width="27.86328125" style="17" customWidth="1"/>
+    <col min="520" max="520" width="19.86328125" style="17" customWidth="1"/>
+    <col min="521" max="521" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="522" max="523" width="24.1328125" style="17" customWidth="1"/>
+    <col min="524" max="524" width="12.73046875" style="17" customWidth="1"/>
+    <col min="525" max="525" width="8.73046875" style="17" customWidth="1"/>
+    <col min="526" max="526" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="23.3984375" style="17" customWidth="1"/>
+    <col min="528" max="772" width="9.1328125" style="17"/>
+    <col min="773" max="773" width="6.59765625" style="17" customWidth="1"/>
+    <col min="774" max="774" width="15.86328125" style="17" customWidth="1"/>
+    <col min="775" max="775" width="27.86328125" style="17" customWidth="1"/>
+    <col min="776" max="776" width="19.86328125" style="17" customWidth="1"/>
+    <col min="777" max="777" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="778" max="779" width="24.1328125" style="17" customWidth="1"/>
+    <col min="780" max="780" width="12.73046875" style="17" customWidth="1"/>
+    <col min="781" max="781" width="8.73046875" style="17" customWidth="1"/>
+    <col min="782" max="782" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="23.3984375" style="17" customWidth="1"/>
+    <col min="784" max="1028" width="9.1328125" style="17"/>
+    <col min="1029" max="1029" width="6.59765625" style="17" customWidth="1"/>
+    <col min="1030" max="1030" width="15.86328125" style="17" customWidth="1"/>
+    <col min="1031" max="1031" width="27.86328125" style="17" customWidth="1"/>
+    <col min="1032" max="1032" width="19.86328125" style="17" customWidth="1"/>
+    <col min="1033" max="1033" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="1034" max="1035" width="24.1328125" style="17" customWidth="1"/>
+    <col min="1036" max="1036" width="12.73046875" style="17" customWidth="1"/>
+    <col min="1037" max="1037" width="8.73046875" style="17" customWidth="1"/>
+    <col min="1038" max="1038" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="23.3984375" style="17" customWidth="1"/>
+    <col min="1040" max="1284" width="9.1328125" style="17"/>
+    <col min="1285" max="1285" width="6.59765625" style="17" customWidth="1"/>
+    <col min="1286" max="1286" width="15.86328125" style="17" customWidth="1"/>
+    <col min="1287" max="1287" width="27.86328125" style="17" customWidth="1"/>
+    <col min="1288" max="1288" width="19.86328125" style="17" customWidth="1"/>
+    <col min="1289" max="1289" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="1290" max="1291" width="24.1328125" style="17" customWidth="1"/>
+    <col min="1292" max="1292" width="12.73046875" style="17" customWidth="1"/>
+    <col min="1293" max="1293" width="8.73046875" style="17" customWidth="1"/>
+    <col min="1294" max="1294" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="23.3984375" style="17" customWidth="1"/>
+    <col min="1296" max="1540" width="9.1328125" style="17"/>
+    <col min="1541" max="1541" width="6.59765625" style="17" customWidth="1"/>
+    <col min="1542" max="1542" width="15.86328125" style="17" customWidth="1"/>
+    <col min="1543" max="1543" width="27.86328125" style="17" customWidth="1"/>
+    <col min="1544" max="1544" width="19.86328125" style="17" customWidth="1"/>
+    <col min="1545" max="1545" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="1546" max="1547" width="24.1328125" style="17" customWidth="1"/>
+    <col min="1548" max="1548" width="12.73046875" style="17" customWidth="1"/>
+    <col min="1549" max="1549" width="8.73046875" style="17" customWidth="1"/>
+    <col min="1550" max="1550" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="23.3984375" style="17" customWidth="1"/>
+    <col min="1552" max="1796" width="9.1328125" style="17"/>
+    <col min="1797" max="1797" width="6.59765625" style="17" customWidth="1"/>
+    <col min="1798" max="1798" width="15.86328125" style="17" customWidth="1"/>
+    <col min="1799" max="1799" width="27.86328125" style="17" customWidth="1"/>
+    <col min="1800" max="1800" width="19.86328125" style="17" customWidth="1"/>
+    <col min="1801" max="1801" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="1802" max="1803" width="24.1328125" style="17" customWidth="1"/>
+    <col min="1804" max="1804" width="12.73046875" style="17" customWidth="1"/>
+    <col min="1805" max="1805" width="8.73046875" style="17" customWidth="1"/>
+    <col min="1806" max="1806" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="23.3984375" style="17" customWidth="1"/>
+    <col min="1808" max="2052" width="9.1328125" style="17"/>
+    <col min="2053" max="2053" width="6.59765625" style="17" customWidth="1"/>
+    <col min="2054" max="2054" width="15.86328125" style="17" customWidth="1"/>
+    <col min="2055" max="2055" width="27.86328125" style="17" customWidth="1"/>
+    <col min="2056" max="2056" width="19.86328125" style="17" customWidth="1"/>
+    <col min="2057" max="2057" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="2058" max="2059" width="24.1328125" style="17" customWidth="1"/>
+    <col min="2060" max="2060" width="12.73046875" style="17" customWidth="1"/>
+    <col min="2061" max="2061" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2062" max="2062" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="23.3984375" style="17" customWidth="1"/>
+    <col min="2064" max="2308" width="9.1328125" style="17"/>
+    <col min="2309" max="2309" width="6.59765625" style="17" customWidth="1"/>
+    <col min="2310" max="2310" width="15.86328125" style="17" customWidth="1"/>
+    <col min="2311" max="2311" width="27.86328125" style="17" customWidth="1"/>
+    <col min="2312" max="2312" width="19.86328125" style="17" customWidth="1"/>
+    <col min="2313" max="2313" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="2314" max="2315" width="24.1328125" style="17" customWidth="1"/>
+    <col min="2316" max="2316" width="12.73046875" style="17" customWidth="1"/>
+    <col min="2317" max="2317" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2318" max="2318" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="23.3984375" style="17" customWidth="1"/>
+    <col min="2320" max="2564" width="9.1328125" style="17"/>
+    <col min="2565" max="2565" width="6.59765625" style="17" customWidth="1"/>
+    <col min="2566" max="2566" width="15.86328125" style="17" customWidth="1"/>
+    <col min="2567" max="2567" width="27.86328125" style="17" customWidth="1"/>
+    <col min="2568" max="2568" width="19.86328125" style="17" customWidth="1"/>
+    <col min="2569" max="2569" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="2570" max="2571" width="24.1328125" style="17" customWidth="1"/>
+    <col min="2572" max="2572" width="12.73046875" style="17" customWidth="1"/>
+    <col min="2573" max="2573" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2574" max="2574" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="23.3984375" style="17" customWidth="1"/>
+    <col min="2576" max="2820" width="9.1328125" style="17"/>
+    <col min="2821" max="2821" width="6.59765625" style="17" customWidth="1"/>
+    <col min="2822" max="2822" width="15.86328125" style="17" customWidth="1"/>
+    <col min="2823" max="2823" width="27.86328125" style="17" customWidth="1"/>
+    <col min="2824" max="2824" width="19.86328125" style="17" customWidth="1"/>
+    <col min="2825" max="2825" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="2826" max="2827" width="24.1328125" style="17" customWidth="1"/>
+    <col min="2828" max="2828" width="12.73046875" style="17" customWidth="1"/>
+    <col min="2829" max="2829" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2830" max="2830" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="23.3984375" style="17" customWidth="1"/>
+    <col min="2832" max="3076" width="9.1328125" style="17"/>
+    <col min="3077" max="3077" width="6.59765625" style="17" customWidth="1"/>
+    <col min="3078" max="3078" width="15.86328125" style="17" customWidth="1"/>
+    <col min="3079" max="3079" width="27.86328125" style="17" customWidth="1"/>
+    <col min="3080" max="3080" width="19.86328125" style="17" customWidth="1"/>
+    <col min="3081" max="3081" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="3082" max="3083" width="24.1328125" style="17" customWidth="1"/>
+    <col min="3084" max="3084" width="12.73046875" style="17" customWidth="1"/>
+    <col min="3085" max="3085" width="8.73046875" style="17" customWidth="1"/>
+    <col min="3086" max="3086" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="23.3984375" style="17" customWidth="1"/>
+    <col min="3088" max="3332" width="9.1328125" style="17"/>
+    <col min="3333" max="3333" width="6.59765625" style="17" customWidth="1"/>
+    <col min="3334" max="3334" width="15.86328125" style="17" customWidth="1"/>
+    <col min="3335" max="3335" width="27.86328125" style="17" customWidth="1"/>
+    <col min="3336" max="3336" width="19.86328125" style="17" customWidth="1"/>
+    <col min="3337" max="3337" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="3338" max="3339" width="24.1328125" style="17" customWidth="1"/>
+    <col min="3340" max="3340" width="12.73046875" style="17" customWidth="1"/>
+    <col min="3341" max="3341" width="8.73046875" style="17" customWidth="1"/>
+    <col min="3342" max="3342" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="23.3984375" style="17" customWidth="1"/>
+    <col min="3344" max="3588" width="9.1328125" style="17"/>
+    <col min="3589" max="3589" width="6.59765625" style="17" customWidth="1"/>
+    <col min="3590" max="3590" width="15.86328125" style="17" customWidth="1"/>
+    <col min="3591" max="3591" width="27.86328125" style="17" customWidth="1"/>
+    <col min="3592" max="3592" width="19.86328125" style="17" customWidth="1"/>
+    <col min="3593" max="3593" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="3594" max="3595" width="24.1328125" style="17" customWidth="1"/>
+    <col min="3596" max="3596" width="12.73046875" style="17" customWidth="1"/>
+    <col min="3597" max="3597" width="8.73046875" style="17" customWidth="1"/>
+    <col min="3598" max="3598" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="23.3984375" style="17" customWidth="1"/>
+    <col min="3600" max="3844" width="9.1328125" style="17"/>
+    <col min="3845" max="3845" width="6.59765625" style="17" customWidth="1"/>
+    <col min="3846" max="3846" width="15.86328125" style="17" customWidth="1"/>
+    <col min="3847" max="3847" width="27.86328125" style="17" customWidth="1"/>
+    <col min="3848" max="3848" width="19.86328125" style="17" customWidth="1"/>
+    <col min="3849" max="3849" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="3850" max="3851" width="24.1328125" style="17" customWidth="1"/>
+    <col min="3852" max="3852" width="12.73046875" style="17" customWidth="1"/>
+    <col min="3853" max="3853" width="8.73046875" style="17" customWidth="1"/>
+    <col min="3854" max="3854" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="23.3984375" style="17" customWidth="1"/>
+    <col min="3856" max="4100" width="9.1328125" style="17"/>
+    <col min="4101" max="4101" width="6.59765625" style="17" customWidth="1"/>
+    <col min="4102" max="4102" width="15.86328125" style="17" customWidth="1"/>
+    <col min="4103" max="4103" width="27.86328125" style="17" customWidth="1"/>
+    <col min="4104" max="4104" width="19.86328125" style="17" customWidth="1"/>
+    <col min="4105" max="4105" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="4106" max="4107" width="24.1328125" style="17" customWidth="1"/>
+    <col min="4108" max="4108" width="12.73046875" style="17" customWidth="1"/>
+    <col min="4109" max="4109" width="8.73046875" style="17" customWidth="1"/>
+    <col min="4110" max="4110" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="23.3984375" style="17" customWidth="1"/>
+    <col min="4112" max="4356" width="9.1328125" style="17"/>
+    <col min="4357" max="4357" width="6.59765625" style="17" customWidth="1"/>
+    <col min="4358" max="4358" width="15.86328125" style="17" customWidth="1"/>
+    <col min="4359" max="4359" width="27.86328125" style="17" customWidth="1"/>
+    <col min="4360" max="4360" width="19.86328125" style="17" customWidth="1"/>
+    <col min="4361" max="4361" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="4362" max="4363" width="24.1328125" style="17" customWidth="1"/>
+    <col min="4364" max="4364" width="12.73046875" style="17" customWidth="1"/>
+    <col min="4365" max="4365" width="8.73046875" style="17" customWidth="1"/>
+    <col min="4366" max="4366" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="23.3984375" style="17" customWidth="1"/>
+    <col min="4368" max="4612" width="9.1328125" style="17"/>
+    <col min="4613" max="4613" width="6.59765625" style="17" customWidth="1"/>
+    <col min="4614" max="4614" width="15.86328125" style="17" customWidth="1"/>
+    <col min="4615" max="4615" width="27.86328125" style="17" customWidth="1"/>
+    <col min="4616" max="4616" width="19.86328125" style="17" customWidth="1"/>
+    <col min="4617" max="4617" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="4618" max="4619" width="24.1328125" style="17" customWidth="1"/>
+    <col min="4620" max="4620" width="12.73046875" style="17" customWidth="1"/>
+    <col min="4621" max="4621" width="8.73046875" style="17" customWidth="1"/>
+    <col min="4622" max="4622" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="23.3984375" style="17" customWidth="1"/>
+    <col min="4624" max="4868" width="9.1328125" style="17"/>
+    <col min="4869" max="4869" width="6.59765625" style="17" customWidth="1"/>
+    <col min="4870" max="4870" width="15.86328125" style="17" customWidth="1"/>
+    <col min="4871" max="4871" width="27.86328125" style="17" customWidth="1"/>
+    <col min="4872" max="4872" width="19.86328125" style="17" customWidth="1"/>
+    <col min="4873" max="4873" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="4874" max="4875" width="24.1328125" style="17" customWidth="1"/>
+    <col min="4876" max="4876" width="12.73046875" style="17" customWidth="1"/>
+    <col min="4877" max="4877" width="8.73046875" style="17" customWidth="1"/>
+    <col min="4878" max="4878" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="23.3984375" style="17" customWidth="1"/>
+    <col min="4880" max="5124" width="9.1328125" style="17"/>
+    <col min="5125" max="5125" width="6.59765625" style="17" customWidth="1"/>
+    <col min="5126" max="5126" width="15.86328125" style="17" customWidth="1"/>
+    <col min="5127" max="5127" width="27.86328125" style="17" customWidth="1"/>
+    <col min="5128" max="5128" width="19.86328125" style="17" customWidth="1"/>
+    <col min="5129" max="5129" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="5130" max="5131" width="24.1328125" style="17" customWidth="1"/>
+    <col min="5132" max="5132" width="12.73046875" style="17" customWidth="1"/>
+    <col min="5133" max="5133" width="8.73046875" style="17" customWidth="1"/>
+    <col min="5134" max="5134" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="23.3984375" style="17" customWidth="1"/>
+    <col min="5136" max="5380" width="9.1328125" style="17"/>
+    <col min="5381" max="5381" width="6.59765625" style="17" customWidth="1"/>
+    <col min="5382" max="5382" width="15.86328125" style="17" customWidth="1"/>
+    <col min="5383" max="5383" width="27.86328125" style="17" customWidth="1"/>
+    <col min="5384" max="5384" width="19.86328125" style="17" customWidth="1"/>
+    <col min="5385" max="5385" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="5386" max="5387" width="24.1328125" style="17" customWidth="1"/>
+    <col min="5388" max="5388" width="12.73046875" style="17" customWidth="1"/>
+    <col min="5389" max="5389" width="8.73046875" style="17" customWidth="1"/>
+    <col min="5390" max="5390" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="23.3984375" style="17" customWidth="1"/>
+    <col min="5392" max="5636" width="9.1328125" style="17"/>
+    <col min="5637" max="5637" width="6.59765625" style="17" customWidth="1"/>
+    <col min="5638" max="5638" width="15.86328125" style="17" customWidth="1"/>
+    <col min="5639" max="5639" width="27.86328125" style="17" customWidth="1"/>
+    <col min="5640" max="5640" width="19.86328125" style="17" customWidth="1"/>
+    <col min="5641" max="5641" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="5642" max="5643" width="24.1328125" style="17" customWidth="1"/>
+    <col min="5644" max="5644" width="12.73046875" style="17" customWidth="1"/>
+    <col min="5645" max="5645" width="8.73046875" style="17" customWidth="1"/>
+    <col min="5646" max="5646" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="23.3984375" style="17" customWidth="1"/>
+    <col min="5648" max="5892" width="9.1328125" style="17"/>
+    <col min="5893" max="5893" width="6.59765625" style="17" customWidth="1"/>
+    <col min="5894" max="5894" width="15.86328125" style="17" customWidth="1"/>
+    <col min="5895" max="5895" width="27.86328125" style="17" customWidth="1"/>
+    <col min="5896" max="5896" width="19.86328125" style="17" customWidth="1"/>
+    <col min="5897" max="5897" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="5898" max="5899" width="24.1328125" style="17" customWidth="1"/>
+    <col min="5900" max="5900" width="12.73046875" style="17" customWidth="1"/>
+    <col min="5901" max="5901" width="8.73046875" style="17" customWidth="1"/>
+    <col min="5902" max="5902" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="23.3984375" style="17" customWidth="1"/>
+    <col min="5904" max="6148" width="9.1328125" style="17"/>
+    <col min="6149" max="6149" width="6.59765625" style="17" customWidth="1"/>
+    <col min="6150" max="6150" width="15.86328125" style="17" customWidth="1"/>
+    <col min="6151" max="6151" width="27.86328125" style="17" customWidth="1"/>
+    <col min="6152" max="6152" width="19.86328125" style="17" customWidth="1"/>
+    <col min="6153" max="6153" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="6154" max="6155" width="24.1328125" style="17" customWidth="1"/>
+    <col min="6156" max="6156" width="12.73046875" style="17" customWidth="1"/>
+    <col min="6157" max="6157" width="8.73046875" style="17" customWidth="1"/>
+    <col min="6158" max="6158" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="23.3984375" style="17" customWidth="1"/>
+    <col min="6160" max="6404" width="9.1328125" style="17"/>
+    <col min="6405" max="6405" width="6.59765625" style="17" customWidth="1"/>
+    <col min="6406" max="6406" width="15.86328125" style="17" customWidth="1"/>
+    <col min="6407" max="6407" width="27.86328125" style="17" customWidth="1"/>
+    <col min="6408" max="6408" width="19.86328125" style="17" customWidth="1"/>
+    <col min="6409" max="6409" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="6410" max="6411" width="24.1328125" style="17" customWidth="1"/>
+    <col min="6412" max="6412" width="12.73046875" style="17" customWidth="1"/>
+    <col min="6413" max="6413" width="8.73046875" style="17" customWidth="1"/>
+    <col min="6414" max="6414" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="23.3984375" style="17" customWidth="1"/>
+    <col min="6416" max="6660" width="9.1328125" style="17"/>
+    <col min="6661" max="6661" width="6.59765625" style="17" customWidth="1"/>
+    <col min="6662" max="6662" width="15.86328125" style="17" customWidth="1"/>
+    <col min="6663" max="6663" width="27.86328125" style="17" customWidth="1"/>
+    <col min="6664" max="6664" width="19.86328125" style="17" customWidth="1"/>
+    <col min="6665" max="6665" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="6666" max="6667" width="24.1328125" style="17" customWidth="1"/>
+    <col min="6668" max="6668" width="12.73046875" style="17" customWidth="1"/>
+    <col min="6669" max="6669" width="8.73046875" style="17" customWidth="1"/>
+    <col min="6670" max="6670" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="23.3984375" style="17" customWidth="1"/>
+    <col min="6672" max="6916" width="9.1328125" style="17"/>
+    <col min="6917" max="6917" width="6.59765625" style="17" customWidth="1"/>
+    <col min="6918" max="6918" width="15.86328125" style="17" customWidth="1"/>
+    <col min="6919" max="6919" width="27.86328125" style="17" customWidth="1"/>
+    <col min="6920" max="6920" width="19.86328125" style="17" customWidth="1"/>
+    <col min="6921" max="6921" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="6922" max="6923" width="24.1328125" style="17" customWidth="1"/>
+    <col min="6924" max="6924" width="12.73046875" style="17" customWidth="1"/>
+    <col min="6925" max="6925" width="8.73046875" style="17" customWidth="1"/>
+    <col min="6926" max="6926" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="23.3984375" style="17" customWidth="1"/>
+    <col min="6928" max="7172" width="9.1328125" style="17"/>
+    <col min="7173" max="7173" width="6.59765625" style="17" customWidth="1"/>
+    <col min="7174" max="7174" width="15.86328125" style="17" customWidth="1"/>
+    <col min="7175" max="7175" width="27.86328125" style="17" customWidth="1"/>
+    <col min="7176" max="7176" width="19.86328125" style="17" customWidth="1"/>
+    <col min="7177" max="7177" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="7178" max="7179" width="24.1328125" style="17" customWidth="1"/>
+    <col min="7180" max="7180" width="12.73046875" style="17" customWidth="1"/>
+    <col min="7181" max="7181" width="8.73046875" style="17" customWidth="1"/>
+    <col min="7182" max="7182" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="23.3984375" style="17" customWidth="1"/>
+    <col min="7184" max="7428" width="9.1328125" style="17"/>
+    <col min="7429" max="7429" width="6.59765625" style="17" customWidth="1"/>
+    <col min="7430" max="7430" width="15.86328125" style="17" customWidth="1"/>
+    <col min="7431" max="7431" width="27.86328125" style="17" customWidth="1"/>
+    <col min="7432" max="7432" width="19.86328125" style="17" customWidth="1"/>
+    <col min="7433" max="7433" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="7434" max="7435" width="24.1328125" style="17" customWidth="1"/>
+    <col min="7436" max="7436" width="12.73046875" style="17" customWidth="1"/>
+    <col min="7437" max="7437" width="8.73046875" style="17" customWidth="1"/>
+    <col min="7438" max="7438" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="23.3984375" style="17" customWidth="1"/>
+    <col min="7440" max="7684" width="9.1328125" style="17"/>
+    <col min="7685" max="7685" width="6.59765625" style="17" customWidth="1"/>
+    <col min="7686" max="7686" width="15.86328125" style="17" customWidth="1"/>
+    <col min="7687" max="7687" width="27.86328125" style="17" customWidth="1"/>
+    <col min="7688" max="7688" width="19.86328125" style="17" customWidth="1"/>
+    <col min="7689" max="7689" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="7690" max="7691" width="24.1328125" style="17" customWidth="1"/>
+    <col min="7692" max="7692" width="12.73046875" style="17" customWidth="1"/>
+    <col min="7693" max="7693" width="8.73046875" style="17" customWidth="1"/>
+    <col min="7694" max="7694" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="23.3984375" style="17" customWidth="1"/>
+    <col min="7696" max="7940" width="9.1328125" style="17"/>
+    <col min="7941" max="7941" width="6.59765625" style="17" customWidth="1"/>
+    <col min="7942" max="7942" width="15.86328125" style="17" customWidth="1"/>
+    <col min="7943" max="7943" width="27.86328125" style="17" customWidth="1"/>
+    <col min="7944" max="7944" width="19.86328125" style="17" customWidth="1"/>
+    <col min="7945" max="7945" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="7946" max="7947" width="24.1328125" style="17" customWidth="1"/>
+    <col min="7948" max="7948" width="12.73046875" style="17" customWidth="1"/>
+    <col min="7949" max="7949" width="8.73046875" style="17" customWidth="1"/>
+    <col min="7950" max="7950" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="23.3984375" style="17" customWidth="1"/>
+    <col min="7952" max="8196" width="9.1328125" style="17"/>
+    <col min="8197" max="8197" width="6.59765625" style="17" customWidth="1"/>
+    <col min="8198" max="8198" width="15.86328125" style="17" customWidth="1"/>
+    <col min="8199" max="8199" width="27.86328125" style="17" customWidth="1"/>
+    <col min="8200" max="8200" width="19.86328125" style="17" customWidth="1"/>
+    <col min="8201" max="8201" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="8202" max="8203" width="24.1328125" style="17" customWidth="1"/>
+    <col min="8204" max="8204" width="12.73046875" style="17" customWidth="1"/>
+    <col min="8205" max="8205" width="8.73046875" style="17" customWidth="1"/>
+    <col min="8206" max="8206" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="23.3984375" style="17" customWidth="1"/>
+    <col min="8208" max="8452" width="9.1328125" style="17"/>
+    <col min="8453" max="8453" width="6.59765625" style="17" customWidth="1"/>
+    <col min="8454" max="8454" width="15.86328125" style="17" customWidth="1"/>
+    <col min="8455" max="8455" width="27.86328125" style="17" customWidth="1"/>
+    <col min="8456" max="8456" width="19.86328125" style="17" customWidth="1"/>
+    <col min="8457" max="8457" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="8458" max="8459" width="24.1328125" style="17" customWidth="1"/>
+    <col min="8460" max="8460" width="12.73046875" style="17" customWidth="1"/>
+    <col min="8461" max="8461" width="8.73046875" style="17" customWidth="1"/>
+    <col min="8462" max="8462" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="23.3984375" style="17" customWidth="1"/>
+    <col min="8464" max="8708" width="9.1328125" style="17"/>
+    <col min="8709" max="8709" width="6.59765625" style="17" customWidth="1"/>
+    <col min="8710" max="8710" width="15.86328125" style="17" customWidth="1"/>
+    <col min="8711" max="8711" width="27.86328125" style="17" customWidth="1"/>
+    <col min="8712" max="8712" width="19.86328125" style="17" customWidth="1"/>
+    <col min="8713" max="8713" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="8714" max="8715" width="24.1328125" style="17" customWidth="1"/>
+    <col min="8716" max="8716" width="12.73046875" style="17" customWidth="1"/>
+    <col min="8717" max="8717" width="8.73046875" style="17" customWidth="1"/>
+    <col min="8718" max="8718" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="23.3984375" style="17" customWidth="1"/>
+    <col min="8720" max="8964" width="9.1328125" style="17"/>
+    <col min="8965" max="8965" width="6.59765625" style="17" customWidth="1"/>
+    <col min="8966" max="8966" width="15.86328125" style="17" customWidth="1"/>
+    <col min="8967" max="8967" width="27.86328125" style="17" customWidth="1"/>
+    <col min="8968" max="8968" width="19.86328125" style="17" customWidth="1"/>
+    <col min="8969" max="8969" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="8970" max="8971" width="24.1328125" style="17" customWidth="1"/>
+    <col min="8972" max="8972" width="12.73046875" style="17" customWidth="1"/>
+    <col min="8973" max="8973" width="8.73046875" style="17" customWidth="1"/>
+    <col min="8974" max="8974" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="23.3984375" style="17" customWidth="1"/>
+    <col min="8976" max="9220" width="9.1328125" style="17"/>
+    <col min="9221" max="9221" width="6.59765625" style="17" customWidth="1"/>
+    <col min="9222" max="9222" width="15.86328125" style="17" customWidth="1"/>
+    <col min="9223" max="9223" width="27.86328125" style="17" customWidth="1"/>
+    <col min="9224" max="9224" width="19.86328125" style="17" customWidth="1"/>
+    <col min="9225" max="9225" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="9226" max="9227" width="24.1328125" style="17" customWidth="1"/>
+    <col min="9228" max="9228" width="12.73046875" style="17" customWidth="1"/>
+    <col min="9229" max="9229" width="8.73046875" style="17" customWidth="1"/>
+    <col min="9230" max="9230" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="23.3984375" style="17" customWidth="1"/>
+    <col min="9232" max="9476" width="9.1328125" style="17"/>
+    <col min="9477" max="9477" width="6.59765625" style="17" customWidth="1"/>
+    <col min="9478" max="9478" width="15.86328125" style="17" customWidth="1"/>
+    <col min="9479" max="9479" width="27.86328125" style="17" customWidth="1"/>
+    <col min="9480" max="9480" width="19.86328125" style="17" customWidth="1"/>
+    <col min="9481" max="9481" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="9482" max="9483" width="24.1328125" style="17" customWidth="1"/>
+    <col min="9484" max="9484" width="12.73046875" style="17" customWidth="1"/>
+    <col min="9485" max="9485" width="8.73046875" style="17" customWidth="1"/>
+    <col min="9486" max="9486" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="23.3984375" style="17" customWidth="1"/>
+    <col min="9488" max="9732" width="9.1328125" style="17"/>
+    <col min="9733" max="9733" width="6.59765625" style="17" customWidth="1"/>
+    <col min="9734" max="9734" width="15.86328125" style="17" customWidth="1"/>
+    <col min="9735" max="9735" width="27.86328125" style="17" customWidth="1"/>
+    <col min="9736" max="9736" width="19.86328125" style="17" customWidth="1"/>
+    <col min="9737" max="9737" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="9738" max="9739" width="24.1328125" style="17" customWidth="1"/>
+    <col min="9740" max="9740" width="12.73046875" style="17" customWidth="1"/>
+    <col min="9741" max="9741" width="8.73046875" style="17" customWidth="1"/>
+    <col min="9742" max="9742" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="23.3984375" style="17" customWidth="1"/>
+    <col min="9744" max="9988" width="9.1328125" style="17"/>
+    <col min="9989" max="9989" width="6.59765625" style="17" customWidth="1"/>
+    <col min="9990" max="9990" width="15.86328125" style="17" customWidth="1"/>
+    <col min="9991" max="9991" width="27.86328125" style="17" customWidth="1"/>
+    <col min="9992" max="9992" width="19.86328125" style="17" customWidth="1"/>
+    <col min="9993" max="9993" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="9994" max="9995" width="24.1328125" style="17" customWidth="1"/>
+    <col min="9996" max="9996" width="12.73046875" style="17" customWidth="1"/>
+    <col min="9997" max="9997" width="8.73046875" style="17" customWidth="1"/>
+    <col min="9998" max="9998" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="23.3984375" style="17" customWidth="1"/>
+    <col min="10000" max="10244" width="9.1328125" style="17"/>
+    <col min="10245" max="10245" width="6.59765625" style="17" customWidth="1"/>
+    <col min="10246" max="10246" width="15.86328125" style="17" customWidth="1"/>
+    <col min="10247" max="10247" width="27.86328125" style="17" customWidth="1"/>
+    <col min="10248" max="10248" width="19.86328125" style="17" customWidth="1"/>
+    <col min="10249" max="10249" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="10250" max="10251" width="24.1328125" style="17" customWidth="1"/>
+    <col min="10252" max="10252" width="12.73046875" style="17" customWidth="1"/>
+    <col min="10253" max="10253" width="8.73046875" style="17" customWidth="1"/>
+    <col min="10254" max="10254" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="23.3984375" style="17" customWidth="1"/>
+    <col min="10256" max="10500" width="9.1328125" style="17"/>
+    <col min="10501" max="10501" width="6.59765625" style="17" customWidth="1"/>
+    <col min="10502" max="10502" width="15.86328125" style="17" customWidth="1"/>
+    <col min="10503" max="10503" width="27.86328125" style="17" customWidth="1"/>
+    <col min="10504" max="10504" width="19.86328125" style="17" customWidth="1"/>
+    <col min="10505" max="10505" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="10506" max="10507" width="24.1328125" style="17" customWidth="1"/>
+    <col min="10508" max="10508" width="12.73046875" style="17" customWidth="1"/>
+    <col min="10509" max="10509" width="8.73046875" style="17" customWidth="1"/>
+    <col min="10510" max="10510" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="23.3984375" style="17" customWidth="1"/>
+    <col min="10512" max="10756" width="9.1328125" style="17"/>
+    <col min="10757" max="10757" width="6.59765625" style="17" customWidth="1"/>
+    <col min="10758" max="10758" width="15.86328125" style="17" customWidth="1"/>
+    <col min="10759" max="10759" width="27.86328125" style="17" customWidth="1"/>
+    <col min="10760" max="10760" width="19.86328125" style="17" customWidth="1"/>
+    <col min="10761" max="10761" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="10762" max="10763" width="24.1328125" style="17" customWidth="1"/>
+    <col min="10764" max="10764" width="12.73046875" style="17" customWidth="1"/>
+    <col min="10765" max="10765" width="8.73046875" style="17" customWidth="1"/>
+    <col min="10766" max="10766" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="23.3984375" style="17" customWidth="1"/>
+    <col min="10768" max="11012" width="9.1328125" style="17"/>
+    <col min="11013" max="11013" width="6.59765625" style="17" customWidth="1"/>
+    <col min="11014" max="11014" width="15.86328125" style="17" customWidth="1"/>
+    <col min="11015" max="11015" width="27.86328125" style="17" customWidth="1"/>
+    <col min="11016" max="11016" width="19.86328125" style="17" customWidth="1"/>
+    <col min="11017" max="11017" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="11018" max="11019" width="24.1328125" style="17" customWidth="1"/>
+    <col min="11020" max="11020" width="12.73046875" style="17" customWidth="1"/>
+    <col min="11021" max="11021" width="8.73046875" style="17" customWidth="1"/>
+    <col min="11022" max="11022" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="23.3984375" style="17" customWidth="1"/>
+    <col min="11024" max="11268" width="9.1328125" style="17"/>
+    <col min="11269" max="11269" width="6.59765625" style="17" customWidth="1"/>
+    <col min="11270" max="11270" width="15.86328125" style="17" customWidth="1"/>
+    <col min="11271" max="11271" width="27.86328125" style="17" customWidth="1"/>
+    <col min="11272" max="11272" width="19.86328125" style="17" customWidth="1"/>
+    <col min="11273" max="11273" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="11274" max="11275" width="24.1328125" style="17" customWidth="1"/>
+    <col min="11276" max="11276" width="12.73046875" style="17" customWidth="1"/>
+    <col min="11277" max="11277" width="8.73046875" style="17" customWidth="1"/>
+    <col min="11278" max="11278" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="23.3984375" style="17" customWidth="1"/>
+    <col min="11280" max="11524" width="9.1328125" style="17"/>
+    <col min="11525" max="11525" width="6.59765625" style="17" customWidth="1"/>
+    <col min="11526" max="11526" width="15.86328125" style="17" customWidth="1"/>
+    <col min="11527" max="11527" width="27.86328125" style="17" customWidth="1"/>
+    <col min="11528" max="11528" width="19.86328125" style="17" customWidth="1"/>
+    <col min="11529" max="11529" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="11530" max="11531" width="24.1328125" style="17" customWidth="1"/>
+    <col min="11532" max="11532" width="12.73046875" style="17" customWidth="1"/>
+    <col min="11533" max="11533" width="8.73046875" style="17" customWidth="1"/>
+    <col min="11534" max="11534" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="23.3984375" style="17" customWidth="1"/>
+    <col min="11536" max="11780" width="9.1328125" style="17"/>
+    <col min="11781" max="11781" width="6.59765625" style="17" customWidth="1"/>
+    <col min="11782" max="11782" width="15.86328125" style="17" customWidth="1"/>
+    <col min="11783" max="11783" width="27.86328125" style="17" customWidth="1"/>
+    <col min="11784" max="11784" width="19.86328125" style="17" customWidth="1"/>
+    <col min="11785" max="11785" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="11786" max="11787" width="24.1328125" style="17" customWidth="1"/>
+    <col min="11788" max="11788" width="12.73046875" style="17" customWidth="1"/>
+    <col min="11789" max="11789" width="8.73046875" style="17" customWidth="1"/>
+    <col min="11790" max="11790" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="23.3984375" style="17" customWidth="1"/>
+    <col min="11792" max="12036" width="9.1328125" style="17"/>
+    <col min="12037" max="12037" width="6.59765625" style="17" customWidth="1"/>
+    <col min="12038" max="12038" width="15.86328125" style="17" customWidth="1"/>
+    <col min="12039" max="12039" width="27.86328125" style="17" customWidth="1"/>
+    <col min="12040" max="12040" width="19.86328125" style="17" customWidth="1"/>
+    <col min="12041" max="12041" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="12042" max="12043" width="24.1328125" style="17" customWidth="1"/>
+    <col min="12044" max="12044" width="12.73046875" style="17" customWidth="1"/>
+    <col min="12045" max="12045" width="8.73046875" style="17" customWidth="1"/>
+    <col min="12046" max="12046" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="23.3984375" style="17" customWidth="1"/>
+    <col min="12048" max="12292" width="9.1328125" style="17"/>
+    <col min="12293" max="12293" width="6.59765625" style="17" customWidth="1"/>
+    <col min="12294" max="12294" width="15.86328125" style="17" customWidth="1"/>
+    <col min="12295" max="12295" width="27.86328125" style="17" customWidth="1"/>
+    <col min="12296" max="12296" width="19.86328125" style="17" customWidth="1"/>
+    <col min="12297" max="12297" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="12298" max="12299" width="24.1328125" style="17" customWidth="1"/>
+    <col min="12300" max="12300" width="12.73046875" style="17" customWidth="1"/>
+    <col min="12301" max="12301" width="8.73046875" style="17" customWidth="1"/>
+    <col min="12302" max="12302" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="23.3984375" style="17" customWidth="1"/>
+    <col min="12304" max="12548" width="9.1328125" style="17"/>
+    <col min="12549" max="12549" width="6.59765625" style="17" customWidth="1"/>
+    <col min="12550" max="12550" width="15.86328125" style="17" customWidth="1"/>
+    <col min="12551" max="12551" width="27.86328125" style="17" customWidth="1"/>
+    <col min="12552" max="12552" width="19.86328125" style="17" customWidth="1"/>
+    <col min="12553" max="12553" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="12554" max="12555" width="24.1328125" style="17" customWidth="1"/>
+    <col min="12556" max="12556" width="12.73046875" style="17" customWidth="1"/>
+    <col min="12557" max="12557" width="8.73046875" style="17" customWidth="1"/>
+    <col min="12558" max="12558" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="23.3984375" style="17" customWidth="1"/>
+    <col min="12560" max="12804" width="9.1328125" style="17"/>
+    <col min="12805" max="12805" width="6.59765625" style="17" customWidth="1"/>
+    <col min="12806" max="12806" width="15.86328125" style="17" customWidth="1"/>
+    <col min="12807" max="12807" width="27.86328125" style="17" customWidth="1"/>
+    <col min="12808" max="12808" width="19.86328125" style="17" customWidth="1"/>
+    <col min="12809" max="12809" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="12810" max="12811" width="24.1328125" style="17" customWidth="1"/>
+    <col min="12812" max="12812" width="12.73046875" style="17" customWidth="1"/>
+    <col min="12813" max="12813" width="8.73046875" style="17" customWidth="1"/>
+    <col min="12814" max="12814" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="23.3984375" style="17" customWidth="1"/>
+    <col min="12816" max="13060" width="9.1328125" style="17"/>
+    <col min="13061" max="13061" width="6.59765625" style="17" customWidth="1"/>
+    <col min="13062" max="13062" width="15.86328125" style="17" customWidth="1"/>
+    <col min="13063" max="13063" width="27.86328125" style="17" customWidth="1"/>
+    <col min="13064" max="13064" width="19.86328125" style="17" customWidth="1"/>
+    <col min="13065" max="13065" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="13066" max="13067" width="24.1328125" style="17" customWidth="1"/>
+    <col min="13068" max="13068" width="12.73046875" style="17" customWidth="1"/>
+    <col min="13069" max="13069" width="8.73046875" style="17" customWidth="1"/>
+    <col min="13070" max="13070" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="23.3984375" style="17" customWidth="1"/>
+    <col min="13072" max="13316" width="9.1328125" style="17"/>
+    <col min="13317" max="13317" width="6.59765625" style="17" customWidth="1"/>
+    <col min="13318" max="13318" width="15.86328125" style="17" customWidth="1"/>
+    <col min="13319" max="13319" width="27.86328125" style="17" customWidth="1"/>
+    <col min="13320" max="13320" width="19.86328125" style="17" customWidth="1"/>
+    <col min="13321" max="13321" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="13322" max="13323" width="24.1328125" style="17" customWidth="1"/>
+    <col min="13324" max="13324" width="12.73046875" style="17" customWidth="1"/>
+    <col min="13325" max="13325" width="8.73046875" style="17" customWidth="1"/>
+    <col min="13326" max="13326" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="23.3984375" style="17" customWidth="1"/>
+    <col min="13328" max="13572" width="9.1328125" style="17"/>
+    <col min="13573" max="13573" width="6.59765625" style="17" customWidth="1"/>
+    <col min="13574" max="13574" width="15.86328125" style="17" customWidth="1"/>
+    <col min="13575" max="13575" width="27.86328125" style="17" customWidth="1"/>
+    <col min="13576" max="13576" width="19.86328125" style="17" customWidth="1"/>
+    <col min="13577" max="13577" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="13578" max="13579" width="24.1328125" style="17" customWidth="1"/>
+    <col min="13580" max="13580" width="12.73046875" style="17" customWidth="1"/>
+    <col min="13581" max="13581" width="8.73046875" style="17" customWidth="1"/>
+    <col min="13582" max="13582" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="23.3984375" style="17" customWidth="1"/>
+    <col min="13584" max="13828" width="9.1328125" style="17"/>
+    <col min="13829" max="13829" width="6.59765625" style="17" customWidth="1"/>
+    <col min="13830" max="13830" width="15.86328125" style="17" customWidth="1"/>
+    <col min="13831" max="13831" width="27.86328125" style="17" customWidth="1"/>
+    <col min="13832" max="13832" width="19.86328125" style="17" customWidth="1"/>
+    <col min="13833" max="13833" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="13834" max="13835" width="24.1328125" style="17" customWidth="1"/>
+    <col min="13836" max="13836" width="12.73046875" style="17" customWidth="1"/>
+    <col min="13837" max="13837" width="8.73046875" style="17" customWidth="1"/>
+    <col min="13838" max="13838" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="23.3984375" style="17" customWidth="1"/>
+    <col min="13840" max="14084" width="9.1328125" style="17"/>
+    <col min="14085" max="14085" width="6.59765625" style="17" customWidth="1"/>
+    <col min="14086" max="14086" width="15.86328125" style="17" customWidth="1"/>
+    <col min="14087" max="14087" width="27.86328125" style="17" customWidth="1"/>
+    <col min="14088" max="14088" width="19.86328125" style="17" customWidth="1"/>
+    <col min="14089" max="14089" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="14090" max="14091" width="24.1328125" style="17" customWidth="1"/>
+    <col min="14092" max="14092" width="12.73046875" style="17" customWidth="1"/>
+    <col min="14093" max="14093" width="8.73046875" style="17" customWidth="1"/>
+    <col min="14094" max="14094" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="23.3984375" style="17" customWidth="1"/>
+    <col min="14096" max="14340" width="9.1328125" style="17"/>
+    <col min="14341" max="14341" width="6.59765625" style="17" customWidth="1"/>
+    <col min="14342" max="14342" width="15.86328125" style="17" customWidth="1"/>
+    <col min="14343" max="14343" width="27.86328125" style="17" customWidth="1"/>
+    <col min="14344" max="14344" width="19.86328125" style="17" customWidth="1"/>
+    <col min="14345" max="14345" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="14346" max="14347" width="24.1328125" style="17" customWidth="1"/>
+    <col min="14348" max="14348" width="12.73046875" style="17" customWidth="1"/>
+    <col min="14349" max="14349" width="8.73046875" style="17" customWidth="1"/>
+    <col min="14350" max="14350" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="23.3984375" style="17" customWidth="1"/>
+    <col min="14352" max="14596" width="9.1328125" style="17"/>
+    <col min="14597" max="14597" width="6.59765625" style="17" customWidth="1"/>
+    <col min="14598" max="14598" width="15.86328125" style="17" customWidth="1"/>
+    <col min="14599" max="14599" width="27.86328125" style="17" customWidth="1"/>
+    <col min="14600" max="14600" width="19.86328125" style="17" customWidth="1"/>
+    <col min="14601" max="14601" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="14602" max="14603" width="24.1328125" style="17" customWidth="1"/>
+    <col min="14604" max="14604" width="12.73046875" style="17" customWidth="1"/>
+    <col min="14605" max="14605" width="8.73046875" style="17" customWidth="1"/>
+    <col min="14606" max="14606" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="23.3984375" style="17" customWidth="1"/>
+    <col min="14608" max="14852" width="9.1328125" style="17"/>
+    <col min="14853" max="14853" width="6.59765625" style="17" customWidth="1"/>
+    <col min="14854" max="14854" width="15.86328125" style="17" customWidth="1"/>
+    <col min="14855" max="14855" width="27.86328125" style="17" customWidth="1"/>
+    <col min="14856" max="14856" width="19.86328125" style="17" customWidth="1"/>
+    <col min="14857" max="14857" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="14858" max="14859" width="24.1328125" style="17" customWidth="1"/>
+    <col min="14860" max="14860" width="12.73046875" style="17" customWidth="1"/>
+    <col min="14861" max="14861" width="8.73046875" style="17" customWidth="1"/>
+    <col min="14862" max="14862" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="23.3984375" style="17" customWidth="1"/>
+    <col min="14864" max="15108" width="9.1328125" style="17"/>
+    <col min="15109" max="15109" width="6.59765625" style="17" customWidth="1"/>
+    <col min="15110" max="15110" width="15.86328125" style="17" customWidth="1"/>
+    <col min="15111" max="15111" width="27.86328125" style="17" customWidth="1"/>
+    <col min="15112" max="15112" width="19.86328125" style="17" customWidth="1"/>
+    <col min="15113" max="15113" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15114" max="15115" width="24.1328125" style="17" customWidth="1"/>
+    <col min="15116" max="15116" width="12.73046875" style="17" customWidth="1"/>
+    <col min="15117" max="15117" width="8.73046875" style="17" customWidth="1"/>
+    <col min="15118" max="15118" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="23.3984375" style="17" customWidth="1"/>
+    <col min="15120" max="15364" width="9.1328125" style="17"/>
+    <col min="15365" max="15365" width="6.59765625" style="17" customWidth="1"/>
+    <col min="15366" max="15366" width="15.86328125" style="17" customWidth="1"/>
+    <col min="15367" max="15367" width="27.86328125" style="17" customWidth="1"/>
+    <col min="15368" max="15368" width="19.86328125" style="17" customWidth="1"/>
+    <col min="15369" max="15369" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15370" max="15371" width="24.1328125" style="17" customWidth="1"/>
+    <col min="15372" max="15372" width="12.73046875" style="17" customWidth="1"/>
+    <col min="15373" max="15373" width="8.73046875" style="17" customWidth="1"/>
+    <col min="15374" max="15374" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="23.3984375" style="17" customWidth="1"/>
+    <col min="15376" max="15620" width="9.1328125" style="17"/>
+    <col min="15621" max="15621" width="6.59765625" style="17" customWidth="1"/>
+    <col min="15622" max="15622" width="15.86328125" style="17" customWidth="1"/>
+    <col min="15623" max="15623" width="27.86328125" style="17" customWidth="1"/>
+    <col min="15624" max="15624" width="19.86328125" style="17" customWidth="1"/>
+    <col min="15625" max="15625" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15626" max="15627" width="24.1328125" style="17" customWidth="1"/>
+    <col min="15628" max="15628" width="12.73046875" style="17" customWidth="1"/>
+    <col min="15629" max="15629" width="8.73046875" style="17" customWidth="1"/>
+    <col min="15630" max="15630" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="23.3984375" style="17" customWidth="1"/>
+    <col min="15632" max="15876" width="9.1328125" style="17"/>
+    <col min="15877" max="15877" width="6.59765625" style="17" customWidth="1"/>
+    <col min="15878" max="15878" width="15.86328125" style="17" customWidth="1"/>
+    <col min="15879" max="15879" width="27.86328125" style="17" customWidth="1"/>
+    <col min="15880" max="15880" width="19.86328125" style="17" customWidth="1"/>
+    <col min="15881" max="15881" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15882" max="15883" width="24.1328125" style="17" customWidth="1"/>
+    <col min="15884" max="15884" width="12.73046875" style="17" customWidth="1"/>
+    <col min="15885" max="15885" width="8.73046875" style="17" customWidth="1"/>
+    <col min="15886" max="15886" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="23.3984375" style="17" customWidth="1"/>
+    <col min="15888" max="16132" width="9.1328125" style="17"/>
+    <col min="16133" max="16133" width="6.59765625" style="17" customWidth="1"/>
+    <col min="16134" max="16134" width="15.86328125" style="17" customWidth="1"/>
+    <col min="16135" max="16135" width="27.86328125" style="17" customWidth="1"/>
+    <col min="16136" max="16136" width="19.86328125" style="17" customWidth="1"/>
+    <col min="16137" max="16137" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="16138" max="16139" width="24.1328125" style="17" customWidth="1"/>
+    <col min="16140" max="16140" width="12.73046875" style="17" customWidth="1"/>
+    <col min="16141" max="16141" width="8.73046875" style="17" customWidth="1"/>
+    <col min="16142" max="16142" width="11.73046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="23.3984375" style="17" customWidth="1"/>
+    <col min="16144" max="16384" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
@@ -1505,14 +1541,26 @@
       <c r="K1" s="3">
         <v>1</v>
       </c>
-      <c r="L1" s="22">
+      <c r="L1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="28">
         <v>1</v>
       </c>
-      <c r="N1" s="28">
+      <c r="Q1" s="28">
         <v>1</v>
       </c>
+      <c r="R1" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
@@ -1529,11 +1577,19 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
-      <c r="N2" s="33" t="s">
-        <v>32</v>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="P2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
@@ -1550,36 +1606,48 @@
         <v>6</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="27" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>21</v>
+      <c r="P3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
@@ -1594,39 +1662,51 @@
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>30</v>
+      <c r="Q4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>15</v>
@@ -1638,23 +1718,31 @@
         <v>17</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="31" t="s">
-        <v>37</v>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1750,7 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:N5">
       <formula1>ListShift</formula1>
     </dataValidation>
   </dataValidations>
@@ -1679,77 +1767,77 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="20" customWidth="1"/>
-    <col min="4" max="10" width="13.7109375" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="18.1328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" style="20" customWidth="1"/>
+    <col min="4" max="10" width="13.73046875" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="C2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="G2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1853,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
